--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-organization.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-18T12:49:42+00:00</t>
+    <t>2025-06-19T12:31:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-organization.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:31:56+00:00</t>
+    <t>2025-06-19T12:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-organization.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:56:09+00:00</t>
+    <t>2025-06-19T13:39:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-organization.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T13:39:18+00:00</t>
+    <t>2025-06-20T10:31:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
